--- a/Doku/Use Case Diagramme/UseCase_Registrierung.xlsx
+++ b/Doku/Use Case Diagramme/UseCase_Registrierung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\DHBW\Semester 4\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\Documents\GitHub\AmazonWatcher\Doku\Use Case Diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="27792" windowHeight="14376"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="27795" windowHeight="14378"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>Der User möchte eine Kundenkartei anlegen</t>
   </si>
   <si>
-    <t>Die Anwendung benötigt einen registreierten Nutzer, um Arktikel verfolgen zu können.</t>
-  </si>
-  <si>
     <t>Nutzer muss sich registrieren</t>
   </si>
   <si>
@@ -273,13 +270,16 @@
     <t>Kunde möchte sich registrieren und öffnet die Registrierungsmaske.</t>
   </si>
   <si>
-    <t>Anmeldeformular öffnet sich, und fordert auf, kundendaten anzugeben</t>
-  </si>
-  <si>
     <t>Kunde gibt Daten an und bestätigt sein Konto mit Knopfdruck.</t>
   </si>
   <si>
     <t>Kundenkartei wird eingepflegt und Funkrionalitäten freigegeben</t>
+  </si>
+  <si>
+    <t>Die Anwendung benötigt einen registrierten Nutzer, um Arktikel verfolgen zu können.</t>
+  </si>
+  <si>
+    <t>Anmeldeformular öffnet sich, und fordert auf, kundendaten anzugeben (email zu beginn, falls zertifizierung benötigt, dann auch mit passwort)</t>
   </si>
 </sst>
 </file>
@@ -653,6 +653,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,15 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,7 +744,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -794,7 +800,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -844,7 +856,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -894,7 +912,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -944,20 +968,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190502" y="6771154"/>
-          <a:ext cx="484580" cy="2307292"/>
+          <a:off x="190502" y="6905065"/>
+          <a:ext cx="484580" cy="1745316"/>
           <a:chOff x="200027" y="7972425"/>
           <a:chExt cx="484580" cy="2752728"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="32" name="Group 31"/>
+          <xdr:cNvPr id="32" name="Group 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -970,7 +1006,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="33" name="Straight Connector 32"/>
+            <xdr:cNvPr id="33" name="Straight Connector 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1005,7 +1047,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="38" name="Straight Connector 37"/>
+            <xdr:cNvPr id="38" name="Straight Connector 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1040,7 +1088,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="39" name="Straight Connector 38"/>
+            <xdr:cNvPr id="39" name="Straight Connector 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1078,7 +1132,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="TextBox 39"/>
+          <xdr:cNvPr id="40" name="TextBox 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1140,7 +1200,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1184,7 +1250,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1228,7 +1300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1272,7 +1350,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1322,7 +1406,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53"/>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1372,7 +1462,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1422,7 +1518,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1472,7 +1574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Rectangle 63"/>
+        <xdr:cNvPr id="64" name="Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1537,7 +1645,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1587,7 +1701,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1637,7 +1757,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1687,7 +1813,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1737,7 +1869,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1750,7 +1888,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="7" name="Group 6"/>
+          <xdr:cNvPr id="7" name="Group 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1763,7 +1907,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="Straight Connector 8"/>
+            <xdr:cNvPr id="9" name="Straight Connector 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1798,7 +1948,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="10" name="Straight Connector 9"/>
+            <xdr:cNvPr id="10" name="Straight Connector 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1833,7 +1989,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="11" name="Straight Connector 10"/>
+            <xdr:cNvPr id="11" name="Straight Connector 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -1871,7 +2033,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1954,7 +2122,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1998,7 +2172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2042,7 +2222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2086,7 +2272,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2136,7 +2328,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2186,7 +2384,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2236,7 +2440,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2296,7 +2506,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2649,24 +2865,24 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="20" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="1"/>
+    <col min="5" max="6" width="9.1328125" style="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="60">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="59.65">
       <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
@@ -2680,17 +2896,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2707,37 +2923,37 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="9.9" customHeight="1">
+    <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="22"/>
       <c r="C6" s="3"/>
@@ -2751,96 +2967,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -2857,20 +3073,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -2959,18 +3175,18 @@
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
@@ -2985,7 +3201,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
+    <row r="24" spans="1:10" ht="26.25" thickTop="1" thickBot="1">
       <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2998,18 +3214,18 @@
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:10" ht="26.25" thickTop="1" thickBot="1">
       <c r="A25" s="12"/>
       <c r="B25" s="26">
         <v>2</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="21" t="s">
@@ -3021,7 +3237,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
+    <row r="26" spans="1:10" ht="39" thickTop="1" thickBot="1">
       <c r="A26" s="12"/>
       <c r="B26" s="6"/>
       <c r="C26" s="33" t="s">
@@ -3034,18 +3250,18 @@
         <v>3</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
+    <row r="27" spans="1:10" ht="26.25" thickTop="1" thickBot="1">
       <c r="A27" s="31"/>
       <c r="B27" s="26">
         <v>4</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="3"/>
@@ -3055,7 +3271,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
+    <row r="28" spans="1:10" ht="26.25" thickTop="1" thickBot="1">
       <c r="A28" s="12"/>
       <c r="B28" s="6"/>
       <c r="C28" s="33"/>
@@ -3066,12 +3282,12 @@
         <v>5</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="67.2" thickTop="1" thickBot="1">
+    <row r="29" spans="1:10" ht="64.5" thickTop="1" thickBot="1">
       <c r="A29" s="31"/>
       <c r="B29" s="26">
         <v>6</v>
@@ -3087,7 +3303,7 @@
       <c r="I29" s="25"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="67.2" thickTop="1" thickBot="1">
+    <row r="30" spans="1:10" ht="64.5" thickTop="1" thickBot="1">
       <c r="A30" s="12"/>
       <c r="B30" s="6"/>
       <c r="C30" s="33"/>
@@ -3103,7 +3319,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="67.2" thickTop="1" thickBot="1">
+    <row r="31" spans="1:10" ht="64.5" thickTop="1" thickBot="1">
       <c r="A31" s="31"/>
       <c r="B31" s="26">
         <v>8</v>
@@ -3119,7 +3335,7 @@
       <c r="I31" s="25"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="67.2" thickTop="1" thickBot="1">
+    <row r="32" spans="1:10" ht="64.5" thickTop="1" thickBot="1">
       <c r="A32" s="12"/>
       <c r="B32" s="6"/>
       <c r="C32" s="33"/>
@@ -3173,28 +3389,28 @@
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="89.25" customHeight="1">
       <c r="A37" s="5"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
@@ -3259,14 +3475,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B36:I36"/>
@@ -3283,6 +3491,14 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
@@ -3305,21 +3521,21 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="1"/>
+    <col min="5" max="6" width="9.1328125" style="1"/>
     <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="40.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="60">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="59.65">
       <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
@@ -3333,17 +3549,17 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3360,37 +3576,37 @@
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="9.9" customHeight="1">
+    <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
@@ -3404,96 +3620,96 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
@@ -3510,20 +3726,20 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="13"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
@@ -3615,24 +3831,24 @@
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3660,7 +3876,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="21.6" thickTop="1" thickBot="1">
+    <row r="25" spans="1:10" ht="21" thickTop="1" thickBot="1">
       <c r="A25" s="37" t="s">
         <v>40</v>
       </c>
@@ -3824,28 +4040,28 @@
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="89.25" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
@@ -3910,15 +4126,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="G22:I22"/>
@@ -3935,6 +4142,15 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2:I2" r:id="rId1" display="Click here to find more information about Use Case Diagram and Methodology"/>
